--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -38,7 +38,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,14 +57,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,73 +111,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -199,25 +133,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -237,11 +156,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff7fd0ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1303,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1315,22 +1233,22 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
       <c r="B1" s="3">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
       <c r="C1" s="4">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
       <c r="D1" s="4">
-        <v>11014000</v>
+        <v>11001000</v>
       </c>
       <c r="E1" s="4">
-        <v>11014000</v>
+        <v>11001000</v>
       </c>
       <c r="F1" s="4">
-        <v>11014000</v>
+        <v>11001000</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
@@ -1355,52 +1273,52 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" s="2">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
       <c r="B3" s="3">
-        <v>21014000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>21014000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>11014000</v>
+        <v>21001000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11001000</v>
       </c>
       <c r="E3" s="4">
-        <v>11014000</v>
+        <v>11001000</v>
       </c>
       <c r="F3" s="4">
-        <v>11014000</v>
+        <v>11001000</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="5">
-        <v>11014000</v>
-      </c>
-      <c r="B4" s="6">
-        <v>11014000</v>
-      </c>
-      <c r="C4" s="7">
-        <v>11014000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>21014000</v>
+      <c r="A4" s="4">
+        <v>11001000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>11001000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11001000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>21001000</v>
       </c>
       <c r="E4" s="3">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
       <c r="F4" s="4">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>21000000</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>21000000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>21000000</v>
       </c>
       <c r="D5" s="4">
@@ -1414,144 +1332,24 @@
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="2">
-        <v>11014000</v>
-      </c>
-      <c r="B6" s="3">
-        <v>11014000</v>
+      <c r="A6" s="4">
+        <v>11001000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>11001000</v>
       </c>
       <c r="C6" s="4">
-        <v>11014000</v>
+        <v>11001000</v>
       </c>
       <c r="D6" s="2">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
       <c r="E6" s="3">
-        <v>21014000</v>
+        <v>21001000</v>
       </c>
       <c r="F6" s="4">
-        <v>21014000</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+        <v>21001000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -6,6 +6,8 @@
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表 1-2" sheetId="3" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -58,7 +60,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -111,13 +113,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -136,7 +330,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -160,6 +411,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1221,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1233,123 +1485,501 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D1" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="F1" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="4">
-        <v>11001000</v>
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11000000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="10">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="21">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="22">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>21000000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>21000000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21000000</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="22">
+        <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>11001000</v>
-      </c>
-      <c r="D4" s="6">
-        <v>21001000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>21001000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>21001000</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="4">
-        <v>21000000</v>
-      </c>
-      <c r="B5" s="4">
-        <v>21000000</v>
+      <c r="A5" s="24">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>11000000</v>
-      </c>
-      <c r="E5" s="4">
-        <v>11000000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>11000000</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>11001000</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11000000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>11000000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11000000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="10">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>21001000</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -1874,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>11000000</v>
+        <v>31000000</v>
       </c>
       <c r="C3" s="5">
-        <v>11000000</v>
+        <v>31000000</v>
       </c>
       <c r="D3" s="5">
-        <v>11000000</v>
+        <v>31000000</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -40,7 +40,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,6 +56,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -311,7 +317,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -384,10 +390,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -412,6 +427,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff7fd0ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1701,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="10">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="10">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="22">
         <v>0</v>
@@ -1721,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
+        <v>21000000</v>
+      </c>
+      <c r="C4" s="24">
+        <v>21000000</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="22">
         <v>0</v>
@@ -1737,7 +1753,7 @@
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="25">
         <v>0</v>
       </c>
       <c r="B5" s="3">
@@ -1825,8 +1841,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1896,10 +1912,10 @@
       <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
         <v>0</v>
       </c>
       <c r="E4" s="3">

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -40,7 +40,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,12 +56,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -317,7 +311,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -390,19 +384,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,7 +412,6 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7fd0ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1567,10 +1551,10 @@
         <v>11000000</v>
       </c>
       <c r="C4" s="8">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="9">
-        <v>11000000</v>
+        <v>31000000</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1737,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="C4" s="5">
         <v>21000000</v>
       </c>
-      <c r="C4" s="24">
-        <v>21000000</v>
-      </c>
       <c r="D4" s="4">
-        <v>21000000</v>
+        <v>31000000</v>
       </c>
       <c r="E4" s="22">
         <v>0</v>
@@ -1753,7 +1737,7 @@
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>0</v>
       </c>
       <c r="B5" s="3">
@@ -1841,8 +1825,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="26" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1890,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>31000000</v>
+        <v>11000000</v>
       </c>
       <c r="C3" s="5">
-        <v>31000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="5">
         <v>31000000</v>
@@ -1912,10 +1896,10 @@
       <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="27">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="3">

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -1525,19 +1525,19 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>31000000</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="7">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
-        <v>31000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1718,19 +1718,19 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="22">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="B4" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>21000000</v>
       </c>
       <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
         <v>31000000</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1874,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>31000000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1891,19 +1891,19 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="6">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>31000000</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -7,7 +7,6 @@
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId3"/>
     <sheet name="工作表 1-1" sheetId="2" r:id="rId4"/>
-    <sheet name="工作表 1-2" sheetId="3" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -311,7 +310,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -385,9 +384,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1721,19 +1717,19 @@
         <v>11000000</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="C4" s="5">
         <v>21000000</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="22">
         <v>31000000</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
+        <v>31000000</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -1773,179 +1769,6 @@
         <v>0</v>
       </c>
       <c r="F6" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="6" width="16.3516" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="6">
-        <v>11000000</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>21000000</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>31000000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -5,8 +5,8 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId3"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表 1-1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表 1" sheetId="2" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -39,7 +39,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,6 +58,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -65,6 +71,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -78,43 +129,13 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -123,7 +144,52 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -136,36 +202,6 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -261,56 +297,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -326,28 +332,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -371,19 +377,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -408,6 +420,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff7fd0ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1486,150 +1499,150 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>0</v>
       </c>
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
+      <c r="E1" s="5">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="3">
         <v>11000000</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B4" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="C4" s="10">
         <v>21000000</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D4" s="10">
+        <v>21000000</v>
+      </c>
+      <c r="E4" s="3">
         <v>31000000</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
+      <c r="F4" s="5">
+        <v>31000000</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1648,161 +1661,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="21">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22">
+      <c r="A1" s="7">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>0</v>
       </c>
       <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="E1" s="6">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23">
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="22">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="22">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="22">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>11000000</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>21000000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>31000000</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="22">
-        <v>11000000</v>
-      </c>
-      <c r="B4" s="4">
-        <v>11000000</v>
-      </c>
-      <c r="C4" s="5">
-        <v>21000000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>21000000</v>
-      </c>
-      <c r="E4" s="22">
-        <v>31000000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>31000000</v>
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="24">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12">
         <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -39,7 +39,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,12 +58,6 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -316,7 +310,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -386,16 +380,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,7 +408,6 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7fd0ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1710,36 +1697,36 @@
         <v>0</v>
       </c>
       <c r="B3" s="12">
-        <v>11000000</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>21000000</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>31000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
+        <v>11000000</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>21000000</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4" s="12">
-        <v>0</v>
+        <v>31000000</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>

--- a/xlsxmaps/level_0002.xlsx
+++ b/xlsxmaps/level_0002.xlsx
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="10">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>11000000</v>
       </c>
       <c r="C4" s="10">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>31000000</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="24">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
